--- a/src/Doc/0704需求.xlsx
+++ b/src/Doc/0704需求.xlsx
@@ -473,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/src/Doc/0704需求.xlsx
+++ b/src/Doc/0704需求.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
   <si>
     <t>责任人</t>
   </si>
@@ -122,6 +122,14 @@
   </si>
   <si>
     <t>7.6-7.8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用插件生成，很难修改</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -473,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -518,6 +526,9 @@
       <c r="C4">
         <v>7.5</v>
       </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1">
       <c r="A5" t="s">
@@ -584,6 +595,9 @@
       <c r="C11">
         <v>7.5</v>
       </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1">
       <c r="A12" t="s">
@@ -626,7 +640,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18" customHeight="1">
+    <row r="17" spans="1:4" ht="18" customHeight="1">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -637,7 +651,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18" customHeight="1">
+    <row r="20" spans="1:4" ht="18" customHeight="1">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -648,7 +662,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18" customHeight="1">
+    <row r="21" spans="1:4" ht="18" customHeight="1">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -658,8 +672,11 @@
       <c r="C21">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="18" customHeight="1">
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18" customHeight="1">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -669,13 +686,16 @@
       <c r="C22">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="18" customHeight="1">
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18" customHeight="1">
       <c r="A25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="18" customHeight="1">
+    <row r="26" spans="1:4" ht="18" customHeight="1">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -685,8 +705,11 @@
       <c r="C26">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="18" customHeight="1">
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18" customHeight="1">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -696,8 +719,11 @@
       <c r="C28">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="18" customHeight="1">
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18" customHeight="1">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -708,7 +734,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="18" customHeight="1">
+    <row r="32" spans="1:4" ht="18" customHeight="1">
       <c r="A32" t="s">
         <v>25</v>
       </c>

--- a/src/Doc/0704需求.xlsx
+++ b/src/Doc/0704需求.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xiaofengzhou/Desktop/project/eliteclub/src/Doc/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="993"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16440" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="0704需求" sheetId="1" r:id="rId1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
   <si>
     <t>责任人</t>
   </si>
@@ -320,14 +315,26 @@
     <rPh sb="13" eb="14">
       <t>xiang'xi</t>
     </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家详情加个话题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡铧枢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -432,7 +439,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -467,7 +474,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -675,19 +682,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="103" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="18" customHeight="1">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -701,7 +708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="18" customHeight="1">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -712,7 +719,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="18" customHeight="1">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -729,12 +736,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="18" customHeight="1">
       <c r="A5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="18" customHeight="1">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -748,7 +755,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="18" customHeight="1">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -762,7 +769,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="18" customHeight="1">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -776,7 +783,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="18" customHeight="1">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -790,7 +797,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="18" customHeight="1">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -807,7 +814,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="18" customHeight="1">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -818,7 +825,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="18" customHeight="1">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -838,7 +845,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="18" customHeight="1">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -855,7 +862,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="18" customHeight="1">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -869,7 +876,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="18" customHeight="1">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -886,7 +893,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="18" customHeight="1">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -897,7 +904,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="18" customHeight="1">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -914,7 +921,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="18" customHeight="1">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -928,12 +935,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="18" customHeight="1">
       <c r="A25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="18" customHeight="1">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -947,7 +954,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="18" customHeight="1">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -961,7 +968,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="18" customHeight="1">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -975,22 +982,22 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="18" customHeight="1">
       <c r="A32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="18" customHeight="1">
       <c r="A35" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="18" customHeight="1">
       <c r="A36" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3" ht="18" customHeight="1">
       <c r="A37" t="s">
         <v>27</v>
       </c>
@@ -1001,12 +1008,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="18" customHeight="1">
       <c r="A38" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" ht="18" customHeight="1">
       <c r="A39" t="s">
         <v>29</v>
       </c>
@@ -1017,22 +1024,33 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="18" customHeight="1">
       <c r="A40" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>54</v>
       </c>

--- a/src/Doc/0704需求.xlsx
+++ b/src/Doc/0704需求.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
   <si>
     <t>责任人</t>
   </si>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t>37、统计</t>
-  </si>
-  <si>
-    <t>38、消息推送（专家认证、预约话题、小秘书回复）</t>
   </si>
   <si>
     <t>39、 个人中心静态化（静态化的登录问题）</t>
@@ -327,6 +324,10 @@
   </si>
   <si>
     <t>ok</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>38、消息推送（专家认证、预约话题、小秘书回复）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -685,13 +686,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="103" customWidth="1"/>
+    <col min="5" max="5" width="8.875" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" customHeight="1">
@@ -724,16 +727,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>7.5</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1">
@@ -743,7 +746,7 @@
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -752,7 +755,7 @@
         <v>7.5</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1">
@@ -766,7 +769,7 @@
         <v>7.6</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1">
@@ -780,7 +783,7 @@
         <v>7.5</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1">
@@ -794,7 +797,7 @@
         <v>7.5</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1">
@@ -802,16 +805,16 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11">
         <v>7.5</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1">
@@ -822,7 +825,7 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1">
@@ -836,13 +839,13 @@
         <v>7.5</v>
       </c>
       <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
         <v>43</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>44</v>
-      </c>
-      <c r="G13" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1">
@@ -850,16 +853,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>7.6</v>
       </c>
       <c r="E15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" t="s">
         <v>47</v>
-      </c>
-      <c r="F15" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1">
@@ -873,7 +876,7 @@
         <v>7.5</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18" customHeight="1">
@@ -887,10 +890,10 @@
         <v>7.5</v>
       </c>
       <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" t="s">
         <v>49</v>
-      </c>
-      <c r="E17" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18" customHeight="1">
@@ -898,7 +901,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20">
         <v>7.6</v>
@@ -909,16 +912,16 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21">
         <v>7.5</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18" customHeight="1">
@@ -926,13 +929,13 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22">
         <v>7.5</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18" customHeight="1">
@@ -945,13 +948,13 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26">
         <v>7.5</v>
       </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18" customHeight="1">
@@ -959,13 +962,13 @@
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28">
         <v>7.5</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18" customHeight="1">
@@ -973,13 +976,13 @@
         <v>23</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30">
         <v>7.6</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="18" customHeight="1">
@@ -999,60 +1002,66 @@
     </row>
     <row r="37" spans="1:3" ht="18" customHeight="1">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" t="s">
         <v>31</v>
-      </c>
-      <c r="C37" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="18" customHeight="1">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="18" customHeight="1">
       <c r="A39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" t="s">
         <v>31</v>
-      </c>
-      <c r="C39" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="18" customHeight="1">
       <c r="A40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" t="s">
         <v>55</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>56</v>
-      </c>
-      <c r="C42" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
